--- a/import2.xlsx
+++ b/import2.xlsx
@@ -1,38 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berta\IdeaProjects\SchoolTimeTableM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB48DB-A856-458A-9A42-F009092EAAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5242A3-6AE0-4981-AC03-5C79178BBC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tantárgyak" sheetId="3" r:id="rId1"/>
-    <sheet name="Termek" sheetId="4" r:id="rId2"/>
+    <sheet name="Termek" sheetId="7" r:id="rId2"/>
     <sheet name="Tanárok" sheetId="2" r:id="rId3"/>
     <sheet name="Osztályok" sheetId="5" r:id="rId4"/>
     <sheet name="Órák" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Órák!$C$1:$C$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Órák!$C$1:$C$331</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="109">
   <si>
     <t>Tantárgy</t>
   </si>
@@ -211,9 +222,6 @@
     <t>Renáta</t>
   </si>
   <si>
-    <t>ezt fölvettük az elsőben</t>
-  </si>
-  <si>
     <t>Osztály2</t>
   </si>
   <si>
@@ -262,9 +270,6 @@
     <t>8. o</t>
   </si>
   <si>
-    <t>Ebédlő</t>
-  </si>
-  <si>
     <t>1. osztály</t>
   </si>
   <si>
@@ -356,6 +361,15 @@
   </si>
   <si>
     <t>n6/1</t>
+  </si>
+  <si>
+    <t>ÚT1</t>
+  </si>
+  <si>
+    <t>Ebédlő2</t>
+  </si>
+  <si>
+    <t>Ebédlő1</t>
   </si>
 </sst>
 </file>
@@ -546,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -578,6 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -861,7 +876,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,27 +1091,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E03BBA-E8CB-410F-AF0C-0E3981D9C212}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2529DACB-EA8E-4534-BF76-718A4B311EF4}">
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -1111,25 +1136,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1138,17 +1163,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1192,10 +1217,16 @@
       <c r="O7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1239,10 +1270,16 @@
       <c r="O8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1286,10 +1323,16 @@
       <c r="O9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1333,10 +1376,16 @@
       <c r="O10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1380,10 +1429,16 @@
       <c r="O11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1427,10 +1482,16 @@
       <c r="O12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1474,10 +1535,16 @@
       <c r="O13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1521,13 +1588,80 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5145,7 +5279,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -5153,7 +5287,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -5161,7 +5295,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -5169,7 +5303,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -5177,7 +5311,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -5185,7 +5319,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -5193,7 +5327,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -5201,7 +5335,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -5215,10 +5349,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Munka2"/>
-  <dimension ref="A1:K331"/>
+  <dimension ref="A1:K328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="H222" sqref="H222:I223"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5237,13 +5371,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5254,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5265,7 +5399,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5276,7 +5410,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5287,7 +5421,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5298,7 +5432,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5309,7 +5443,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5320,7 +5454,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5331,7 +5465,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5342,7 +5476,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5353,7 +5487,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5364,7 +5498,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5375,7 +5509,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5386,7 +5520,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5397,7 +5531,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5408,7 +5542,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -5419,7 +5553,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5430,10 +5564,10 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5444,7 +5578,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5455,7 +5589,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,7 +5600,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5477,7 +5611,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5488,7 +5622,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5499,7 +5633,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -5510,7 +5644,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5521,7 +5655,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5532,7 +5666,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5543,7 +5677,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5554,10 +5688,10 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5568,10 +5702,10 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5582,10 +5716,10 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5596,10 +5730,10 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5610,10 +5744,10 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5624,10 +5758,10 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5638,10 +5772,10 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5652,10 +5786,10 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5666,10 +5800,10 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5680,10 +5814,10 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5694,10 +5828,10 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5708,10 +5842,10 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5722,10 +5856,10 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5736,7 +5870,7 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5747,7 +5881,7 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5758,7 +5892,7 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5769,7 +5903,7 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5780,7 +5914,7 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5791,7 +5925,7 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5802,7 +5936,7 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -5813,7 +5947,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -5824,7 +5958,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -5835,7 +5969,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -5846,7 +5980,7 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -5857,7 +5991,7 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -5868,7 +6002,7 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -5879,7 +6013,7 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -5890,7 +6024,7 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -5901,7 +6035,7 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -5912,22 +6046,20 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
+      <c r="A59" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K59" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -5937,7 +6069,7 @@
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -5948,7 +6080,7 @@
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -5959,29 +6091,29 @@
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5992,7 +6124,7 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,7 +6135,7 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -6014,7 +6146,7 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6025,18 +6157,18 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6047,40 +6179,43 @@
         <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+      <c r="A73" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="F73" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -6091,38 +6226,38 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6133,38 +6268,38 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="F78" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6175,38 +6310,38 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6217,66 +6352,60 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C84" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="14" t="s">
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="C87" t="s">
-        <v>78</v>
-      </c>
-      <c r="F87" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6287,7 +6416,7 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6295,10 +6424,10 @@
         <v>30</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6306,32 +6435,32 @@
         <v>30</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6342,7 +6471,7 @@
         <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6353,7 +6482,7 @@
         <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6364,29 +6493,29 @@
         <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -6397,7 +6526,7 @@
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -6408,51 +6537,51 @@
         <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -6463,7 +6592,7 @@
         <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -6474,7 +6603,7 @@
         <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -6485,51 +6614,51 @@
         <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
         <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -6540,7 +6669,7 @@
         <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -6551,7 +6680,7 @@
         <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -6562,129 +6691,135 @@
         <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B117" t="s">
         <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" t="s">
-        <v>21</v>
+      <c r="A118" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C118" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="F118" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>26</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="A119" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="F119" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F120" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>77</v>
+      </c>
+      <c r="F121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="16" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B123" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="C123" t="s">
+        <v>77</v>
+      </c>
+      <c r="F123" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" t="s">
-        <v>79</v>
-      </c>
-      <c r="F122" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" t="s">
-        <v>79</v>
-      </c>
-      <c r="F123" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -6695,38 +6830,38 @@
         <v>25</v>
       </c>
       <c r="C124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F124" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B125" s="12" t="s">
-        <v>25</v>
+      <c r="B125" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C125" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>25</v>
+      <c r="B126" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -6737,38 +6872,38 @@
         <v>17</v>
       </c>
       <c r="C127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F127" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F129" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -6779,38 +6914,32 @@
         <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F130" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>17</v>
+      <c r="A131" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C131" t="s">
-        <v>79</v>
-      </c>
-      <c r="F131" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>17</v>
+      <c r="A132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
-      </c>
-      <c r="F132" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -6821,7 +6950,7 @@
         <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -6829,10 +6958,10 @@
         <v>30</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -6840,46 +6969,43 @@
         <v>30</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="B136" t="s">
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>30</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
       </c>
       <c r="C137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
-      </c>
-      <c r="D138" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -6890,7 +7016,7 @@
         <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -6901,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="C140" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -6912,7 +7038,7 @@
         <v>32</v>
       </c>
       <c r="C141" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -6923,7 +7049,7 @@
         <v>32</v>
       </c>
       <c r="C142" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -6934,29 +7060,35 @@
         <v>32</v>
       </c>
       <c r="C143" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C144" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="D144" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C145" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="D145" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -6967,7 +7099,7 @@
         <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D146" t="s">
         <v>34</v>
@@ -6981,7 +7113,7 @@
         <v>33</v>
       </c>
       <c r="C147" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D147" t="s">
         <v>34</v>
@@ -6989,52 +7121,46 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>80</v>
-      </c>
-      <c r="D148" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>80</v>
-      </c>
-      <c r="D149" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -7042,10 +7168,10 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C152" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -7056,7 +7182,7 @@
         <v>34</v>
       </c>
       <c r="C153" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -7067,51 +7193,51 @@
         <v>34</v>
       </c>
       <c r="C154" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B155" t="s">
         <v>34</v>
       </c>
       <c r="C155" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C156" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -7122,10 +7248,7 @@
         <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>80</v>
-      </c>
-      <c r="D159" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -7136,10 +7259,7 @@
         <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>80</v>
-      </c>
-      <c r="D160" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -7150,10 +7270,7 @@
         <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>80</v>
-      </c>
-      <c r="D161" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -7164,233 +7281,227 @@
         <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>80</v>
-      </c>
-      <c r="D162" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="D164" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B166" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
-      </c>
-      <c r="D166" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" t="s">
-        <v>21</v>
+      <c r="A167" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="F167" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>26</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="A168" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C168" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="F168" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C169" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F169" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" t="s">
+        <v>78</v>
+      </c>
+      <c r="F170" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" t="s">
+        <v>78</v>
+      </c>
+      <c r="F171" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="18" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B172" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C170" t="s">
-        <v>80</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="C172" t="s">
+        <v>78</v>
+      </c>
+      <c r="F172" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="19" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B173" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" t="s">
+        <v>78</v>
+      </c>
+      <c r="F173" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" t="s">
+        <v>78</v>
+      </c>
+      <c r="F174" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" t="s">
+        <v>78</v>
+      </c>
+      <c r="F175" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C176" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C171" t="s">
-        <v>80</v>
-      </c>
-      <c r="F171" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B172" s="19" t="s">
+      <c r="C177" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C172" t="s">
-        <v>80</v>
-      </c>
-      <c r="F172" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173" t="s">
-        <v>80</v>
-      </c>
-      <c r="F173" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C174" t="s">
-        <v>80</v>
-      </c>
-      <c r="F174" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>28</v>
-      </c>
-      <c r="B175" t="s">
-        <v>34</v>
-      </c>
-      <c r="C175" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C176" t="s">
-        <v>80</v>
-      </c>
-      <c r="F176" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C177" t="s">
-        <v>80</v>
-      </c>
-      <c r="F177" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B178" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="C178" t="s">
-        <v>80</v>
-      </c>
-      <c r="F178" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>30</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C179" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -7398,131 +7509,131 @@
         <v>34</v>
       </c>
       <c r="C180" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>30</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B181" t="s">
+        <v>37</v>
       </c>
       <c r="C181" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>30</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B182" t="s">
+        <v>37</v>
       </c>
       <c r="C182" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>30</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B183" t="s">
+        <v>37</v>
       </c>
       <c r="C183" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B184" t="s">
         <v>37</v>
       </c>
       <c r="C184" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B185" t="s">
         <v>37</v>
       </c>
       <c r="C185" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B186" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B187" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B188" t="s">
         <v>37</v>
       </c>
       <c r="C188" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C189" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C190" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C191" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -7530,62 +7641,62 @@
         <v>33</v>
       </c>
       <c r="C192" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C193" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B194" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C194" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B195" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C195" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C196" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B197" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -7596,7 +7707,7 @@
         <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -7606,77 +7717,77 @@
       <c r="B199" t="s">
         <v>43</v>
       </c>
-      <c r="C199" t="s">
-        <v>81</v>
+      <c r="C199" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E199" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B200" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C201" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B202" t="s">
-        <v>43</v>
-      </c>
-      <c r="C202" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E202" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="C202" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C203" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C204" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C205" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -7687,7 +7798,7 @@
         <v>23</v>
       </c>
       <c r="C206" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -7698,240 +7809,249 @@
         <v>23</v>
       </c>
       <c r="C207" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C208" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C210" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C211" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>48</v>
-      </c>
-      <c r="B212" t="s">
-        <v>25</v>
-      </c>
-      <c r="C212" t="s">
-        <v>81</v>
+      <c r="A212" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E212" t="s">
+        <v>80</v>
+      </c>
+      <c r="G212" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>20</v>
-      </c>
-      <c r="B213" t="s">
+      <c r="A213" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C213" t="s">
-        <v>81</v>
+      <c r="C213" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E213" t="s">
+        <v>80</v>
+      </c>
+      <c r="G213" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>26</v>
-      </c>
-      <c r="B214" t="s">
-        <v>41</v>
-      </c>
-      <c r="C214" t="s">
-        <v>81</v>
+      <c r="A214" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E214" t="s">
+        <v>80</v>
+      </c>
+      <c r="G214" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="17" t="s">
+      <c r="A215" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B215" s="17" t="s">
+      <c r="B215" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E215" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="17" t="s">
+      <c r="A216" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B216" s="17" t="s">
+      <c r="B216" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E216" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G216" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="11" t="s">
+      <c r="A217" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C217" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E217" t="s">
+        <v>80</v>
+      </c>
+      <c r="G217" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" t="s">
+        <v>46</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E218" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" t="s">
+        <v>46</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E219" t="s">
+        <v>80</v>
+      </c>
+      <c r="H219" t="s">
         <v>81</v>
       </c>
-      <c r="E217" t="s">
+      <c r="I219" t="s">
         <v>82</v>
       </c>
-      <c r="G217" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="11" t="s">
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>28</v>
       </c>
-      <c r="B218" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C218" s="21" t="s">
+      <c r="B220" t="s">
+        <v>46</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E220" t="s">
+        <v>80</v>
+      </c>
+      <c r="H220" t="s">
         <v>81</v>
       </c>
-      <c r="E218" t="s">
+      <c r="I220" t="s">
         <v>82</v>
-      </c>
-      <c r="G218" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E219" t="s">
-        <v>82</v>
-      </c>
-      <c r="G219" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C220" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E220" t="s">
-        <v>82</v>
-      </c>
-      <c r="G220" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E221" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B222" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E222" t="s">
-        <v>82</v>
-      </c>
-      <c r="H222" t="s">
-        <v>83</v>
-      </c>
-      <c r="I222" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B223" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E223" t="s">
-        <v>82</v>
-      </c>
-      <c r="H223" t="s">
-        <v>83</v>
-      </c>
-      <c r="I223" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -7939,13 +8059,13 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E224" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -7956,140 +8076,131 @@
         <v>37</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E225" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B226" t="s">
-        <v>32</v>
-      </c>
-      <c r="C226" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E226" t="s">
-        <v>82</v>
+        <v>37</v>
+      </c>
+      <c r="C226" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B227" t="s">
         <v>32</v>
       </c>
-      <c r="C227" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E227" t="s">
-        <v>82</v>
+      <c r="C227" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B228" t="s">
-        <v>37</v>
-      </c>
-      <c r="C228" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E228" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="C228" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B229" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C229" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B230" t="s">
         <v>32</v>
       </c>
       <c r="C230" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B231" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B233" t="s">
         <v>32</v>
       </c>
       <c r="C233" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C234" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B235" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C235" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C236" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -8100,62 +8211,62 @@
         <v>33</v>
       </c>
       <c r="C237" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C239" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C240" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C241" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C242" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -8166,73 +8277,73 @@
         <v>43</v>
       </c>
       <c r="C243" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B244" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B245" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C245" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C246" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C247" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B248" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C248" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B249" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C249" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -8243,7 +8354,7 @@
         <v>46</v>
       </c>
       <c r="C250" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -8254,236 +8365,230 @@
         <v>46</v>
       </c>
       <c r="C251" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B252" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C252" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B253" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C253" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C254" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C255" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B256" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C256" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B257" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C257" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B258" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C258" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B259" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C259" t="s">
-        <v>83</v>
-      </c>
-      <c r="D259" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B260" t="s">
         <v>32</v>
       </c>
       <c r="C260" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B262" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C262" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C263" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B264" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C264" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B265" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C265" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B266" t="s">
         <v>50</v>
       </c>
       <c r="C266" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C267" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B268" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C268" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C269" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B270" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C270" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B271" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C271" t="s">
-        <v>83</v>
-      </c>
-      <c r="D271" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -8491,7 +8596,10 @@
         <v>43</v>
       </c>
       <c r="C272" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="E272" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -8502,112 +8610,118 @@
         <v>43</v>
       </c>
       <c r="C273" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="E273" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B274" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C274" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B275" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C275" t="s">
-        <v>83</v>
-      </c>
-      <c r="E275" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B276" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C276" t="s">
-        <v>83</v>
-      </c>
-      <c r="E276" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B277" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C277" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B278" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B279" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C279" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B280" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C280" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="D280" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B281" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C281" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="D281" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B282" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C282" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="D282" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -8618,7 +8732,7 @@
         <v>46</v>
       </c>
       <c r="C283" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D283" t="s">
         <v>56</v>
@@ -8632,7 +8746,7 @@
         <v>46</v>
       </c>
       <c r="C284" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D284" t="s">
         <v>56</v>
@@ -8640,150 +8754,150 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B285" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C285" t="s">
-        <v>83</v>
-      </c>
-      <c r="D285" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B286" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C286" t="s">
-        <v>83</v>
-      </c>
-      <c r="D286" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B287" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C287" t="s">
-        <v>83</v>
-      </c>
-      <c r="D287" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B288" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C288" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>48</v>
-      </c>
-      <c r="B289" t="s">
-        <v>50</v>
+      <c r="A289" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C289" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="E289" t="s">
+        <v>82</v>
+      </c>
+      <c r="G289" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>20</v>
-      </c>
-      <c r="B290" t="s">
-        <v>21</v>
+      <c r="A290" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C290" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="E290" t="s">
+        <v>82</v>
+      </c>
+      <c r="G290" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B291" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C291" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="E291" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="13" t="s">
+      <c r="A292" t="s">
         <v>28</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="B292" t="s">
         <v>46</v>
       </c>
       <c r="C292" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E292" t="s">
-        <v>84</v>
-      </c>
-      <c r="G292" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B293" s="13" t="s">
+      <c r="A293" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" t="s">
         <v>46</v>
       </c>
       <c r="C293" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E293" t="s">
-        <v>84</v>
-      </c>
-      <c r="G293" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B294" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C294" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E294" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B295" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C295" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E295" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -8791,13 +8905,13 @@
         <v>30</v>
       </c>
       <c r="B296" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C296" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E296" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -8805,297 +8919,288 @@
         <v>30</v>
       </c>
       <c r="B297" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C297" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E297" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B298" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C298" t="s">
-        <v>83</v>
-      </c>
-      <c r="E298" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B299" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C299" t="s">
-        <v>83</v>
-      </c>
-      <c r="E299" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B300" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C300" t="s">
-        <v>83</v>
-      </c>
-      <c r="E300" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B301" t="s">
         <v>37</v>
       </c>
       <c r="C301" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B302" t="s">
         <v>37</v>
       </c>
       <c r="C302" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B303" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C303" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B304" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C304" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B305" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C305" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B306" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C306" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B307" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C307" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B308" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C308" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B309" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C309" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B310" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C310" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B311" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C311" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B312" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C312" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B313" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C313" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B314" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C314" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B315" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C315" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B316" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C316" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B317" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C317" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B318" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C318" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B319" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C319" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B320" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C320" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B321" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C321" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B322" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C322" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -9106,7 +9211,7 @@
         <v>46</v>
       </c>
       <c r="C323" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -9117,84 +9222,51 @@
         <v>46</v>
       </c>
       <c r="C324" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B325" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C325" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B326" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C326" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B327" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C327" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B328" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C328" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>48</v>
-      </c>
-      <c r="B329" t="s">
-        <v>47</v>
-      </c>
-      <c r="C329" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>20</v>
-      </c>
-      <c r="B330" t="s">
-        <v>21</v>
-      </c>
-      <c r="C330" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>26</v>
-      </c>
-      <c r="B331" t="s">
-        <v>41</v>
-      </c>
-      <c r="C331" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/import2.xlsx
+++ b/import2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berta\IdeaProjects\SchoolTimeTableM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5242A3-6AE0-4981-AC03-5C79178BBC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AE6A71-8CBF-4058-9128-0AC57BDF9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="110">
   <si>
     <t>Tantárgy</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Ebédlő1</t>
+  </si>
+  <si>
+    <t>ÚT2</t>
   </si>
 </sst>
 </file>
@@ -586,13 +589,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1092,15 +1095,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2529DACB-EA8E-4534-BF76-718A4B311EF4}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1122,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -1223,8 +1226,11 @@
       <c r="R7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
@@ -1276,8 +1282,11 @@
       <c r="R8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -1329,8 +1338,11 @@
       <c r="R9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -1382,8 +1394,11 @@
       <c r="R10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
@@ -1435,8 +1450,11 @@
       <c r="R11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -1488,8 +1506,11 @@
       <c r="R12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>73</v>
       </c>
@@ -1541,8 +1562,11 @@
       <c r="R13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
@@ -1594,8 +1618,11 @@
       <c r="R14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>108</v>
       </c>
@@ -1603,15 +1630,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>106</v>
       </c>
@@ -1663,8 +1690,68 @@
       <c r="R17" t="s">
         <v>36</v>
       </c>
+      <c r="S17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1688,67 +1775,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="2">
         <v>1</v>
       </c>
